--- a/auditoria_demo.xlsx
+++ b/auditoria_demo.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="inlineStr"/>
     </row>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>0</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="inlineStr"/>
     </row>
@@ -689,7 +689,7 @@
       <c r="C13" s="4" t="n"/>
       <c r="D13" s="5" t="n"/>
       <c r="E13" s="2" t="n">
-        <v>40</v>
+        <v>53.33</v>
       </c>
     </row>
   </sheetData>
